--- a/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>13,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>11,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>54,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>101,02%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>80,44%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14,15%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 18,21</t>
+          <t>-7,9; 26,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 17,31</t>
+          <t>-2,35; 30,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 15,81</t>
+          <t>-4,46; 29,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 148,99</t>
+          <t>-18,19; 27,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 154,83</t>
+          <t>-32,99; 333,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 121,14</t>
+          <t>-17,33; 461,17</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-23,99; 423,89</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-55,01; 253,05</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>66,06%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>98,65%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>70,65%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 11,49</t>
+          <t>-13,67; 10,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 12,38</t>
+          <t>-0,81; 14,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 12,22</t>
+          <t>1,76; 16,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 86,06</t>
+          <t>-0,03; 15,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 98,08</t>
+          <t>-54,02; 104,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 90,52</t>
+          <t>-7,02; 203,11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9,22; 267,09</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 226,51</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-39,68%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 10,77</t>
+          <t>-12,27; 9,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 9,25</t>
+          <t>-11,05; 10,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 9,3</t>
+          <t>-10,29; 10,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 103,72</t>
+          <t>-19,19; 1,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 66,03</t>
+          <t>-49,21; 75,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 69,7</t>
+          <t>-40,44; 70,98</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-41,8; 85,4</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-68,0; 12,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 9,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 9,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 8,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 64,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 60,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 62,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,69</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,86</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>51,25%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 7,87</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 11,77</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 12,54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 7,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-30,97; 63,01</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 104,69</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 120,96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-26,66; 66,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,81</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,58</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,73</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>54,34%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>101,02%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>80,44%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,15%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.111460631570731</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>13.3331797524224</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.47814032610733</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.871065586345436</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.6031171519346822</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.9966983933340163</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7308630767526726</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.09092574557659441</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,9; 26,77</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; 30,71</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,46; 29,96</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-18,19; 27,12</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-32,99; 333,46</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-17,33; 461,17</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-23,99; 423,89</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-55,01; 253,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.275912796956205</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.689692206501511</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.428430892093778</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-18.58338524328536</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3161104534114575</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1690106242374762</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2820454338198963</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5539251097258493</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.59704004254186</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>29.50644046884763</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>28.54287206991892</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>26.88941282349193</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.136541652054354</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>4.577585484392751</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.953929441438874</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.529640242850785</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,87</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,42</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,41</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,71%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>66,06%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>98,65%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>70,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-13,67; 10,36</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 14,29</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 16,72</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 15,71</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-54,02; 104,01</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; 203,11</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>9,22; 267,09</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-7,53; 226,51</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.2641469467136309</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.407073909997687</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.399578301748656</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.77614977207713</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.01539607885382368</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.5943533197325681</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.006108330448687</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.8053917721745349</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,78</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-2,38%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-39,68%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-13.60981788592897</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.69947775080663</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.58513128914535</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.7711425399245508</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5454737370109418</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1448865462879286</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.08880333383804831</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.01138407240491669</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,27; 9,81</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; 10,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,29; 10,78</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,19; 1,11</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-49,21; 75,46</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-40,44; 70,98</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-41,8; 85,4</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-68,0; 12,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.645179471124738</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.32920548405296</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.57372371081924</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>16.13219115685283</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.9208434625913227</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.004354306443666</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.716059899435823</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.468065739984308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.062999571239246</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5143708958280091</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.04407501144282344</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7.965757739434316</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1900361505588888</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.02502938488904352</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.002316476268939657</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4013560211598597</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-18.62429366625429</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.17891188248467</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.97381256797125</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-19.55535803170132</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.5912231780262853</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4286659174850697</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4606070275863787</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6756344364334922</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.832727505459703</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.946501731800751</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.649591047838491</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.133192244050051</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.5603353016115046</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.6320353312868453</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.7333667373665412</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.09938643012019854</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,69</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>40,02%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>51,25%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>9,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 7,87</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 11,77</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 12,54</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 7,64</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-30,97; 63,01</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 104,69</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 120,96</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-26,66; 66,4</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.4432409930306691</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.990630478243801</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.380632784032267</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.580716809581603</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.02395817857226566</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.3398434807723288</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4763971206320133</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1064003862912625</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.96805841215628</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.7192350603354244</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1209607824097423</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.722777194634334</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3553173078435123</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.06616282079976436</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.02231062454743125</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2560313689783346</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.579421104534909</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.9219878338312</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.07103356962366</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.709431107620284</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4968293887722964</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.9543229360693681</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.116260863928293</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.6708064249140938</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
